--- a/KI67/data/aperio/TIAN TMA6 APERIO.xlsx
+++ b/KI67/data/aperio/TIAN TMA6 APERIO.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markwang/github/LearnR/KI67/data/aperio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +66,15 @@
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
 </sst>
 </file>
 
@@ -62,14 +84,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -78,7 +100,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +152,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,12 +207,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -220,12 +242,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -431,17 +453,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +507,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -529,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>99</v>
       </c>
@@ -567,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>306</v>
       </c>
@@ -605,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -641,7 +663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>18</v>
       </c>
@@ -673,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>7</v>
       </c>
@@ -705,7 +727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>8</v>
       </c>
@@ -732,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>113</v>
       </c>
@@ -755,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10">
         <v>67</v>
@@ -773,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,7 +852,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -840,7 +862,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -884,7 +906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>26</v>
       </c>
@@ -922,7 +944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="3">
         <v>141</v>
@@ -962,7 +984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1029,7 +1051,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1115,7 @@
         <v>41.665963800383231</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1146,12 +1168,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2">
+        <v>141</v>
+      </c>
+      <c r="E1" s="2">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1">
+        <v>188</v>
+      </c>
+      <c r="G1" s="2">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2">
+        <v>300</v>
+      </c>
+      <c r="I1" s="2">
+        <v>316</v>
+      </c>
+      <c r="J1" s="1">
+        <v>319</v>
+      </c>
+      <c r="K1" s="2">
+        <v>326</v>
+      </c>
+      <c r="L1" s="2">
+        <v>689</v>
+      </c>
+      <c r="M1" s="1">
+        <v>622</v>
+      </c>
+      <c r="N1" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>47.890625</v>
+      </c>
+      <c r="C2">
+        <v>15.949428640894725</v>
+      </c>
+      <c r="D2">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="E2">
+        <v>29.745042492917843</v>
+      </c>
+      <c r="F2">
+        <v>7.6180482686253939</v>
+      </c>
+      <c r="G2">
+        <v>25.354609929078016</v>
+      </c>
+      <c r="H2">
+        <v>46.268656716417908</v>
+      </c>
+      <c r="I2">
+        <v>60.975609756097562</v>
+      </c>
+      <c r="J2">
+        <v>11.760966306420851</v>
+      </c>
+      <c r="K2">
+        <v>15.051020408163266</v>
+      </c>
+      <c r="L2">
+        <v>72.941176470588232</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>22.388059701492537</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1159,12 +1272,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>47.890625</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>15.949428640894725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>15.949428640894725</v>
+      </c>
+      <c r="D3" s="1">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>7.6180482686253939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="D4" s="1">
+        <v>319</v>
+      </c>
+      <c r="E4">
+        <v>11.760966306420851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>29.745042492917843</v>
+      </c>
+      <c r="D5" s="1">
+        <v>622</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>7.6180482686253939</v>
+      </c>
+      <c r="D6" s="1">
+        <v>668</v>
+      </c>
+      <c r="E6">
+        <v>22.388059701492537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>226</v>
+      </c>
+      <c r="B7">
+        <v>25.354609929078016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>46.268656716417908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>60.975609756097562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>319</v>
+      </c>
+      <c r="B10">
+        <v>11.760966306420851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>326</v>
+      </c>
+      <c r="B11">
+        <v>15.051020408163266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>689</v>
+      </c>
+      <c r="B12">
+        <v>72.941176470588232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>622</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>668</v>
+      </c>
+      <c r="B14">
+        <v>22.388059701492537</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
